--- a/src/main/resources/test_excel.xlsx
+++ b/src/main/resources/test_excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Java\BI\BI-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4C702B-6E71-48DA-9572-4E354E73B7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AD9674-B6A2-4C05-A23A-845EA5A3CAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>用户量</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <r>
       <t>1</t>
@@ -66,6 +60,18 @@
   </si>
   <si>
     <t>5号</t>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气温</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -463,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8"/>
@@ -476,17 +482,17 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>10</v>
@@ -496,34 +502,42 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>5</v>
-      </c>
-      <c r="B5">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>70</v>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
